--- a/TB_BOM.xlsx
+++ b/TB_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trott\Documents\UofSC-ASME-Tiger-Burn-Design-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484DA9C3-CA8D-40F6-99F9-6ACD3BC77698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771006F2-B7FC-493C-9004-00542FA90198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-9105" windowWidth="16440" windowHeight="28320" xr2:uid="{5E11D219-2DD1-4F5F-BD59-159B1B8915B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E11D219-2DD1-4F5F-BD59-159B1B8915B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Wood lengths</t>
   </si>
@@ -90,13 +90,38 @@
   </si>
   <si>
     <t>x2</t>
+  </si>
+  <si>
+    <t>Tail</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Note: Not included in sum if marked </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF5050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>red</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +137,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF5050"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -157,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -171,12 +202,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -505,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FB1068-2A37-45DD-A633-D1C139FB0473}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -516,22 +558,23 @@
     <col min="1" max="1" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,35 +590,38 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -585,40 +631,43 @@
       <c r="E2" s="4">
         <v>25</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4">
+      <c r="F2" s="5">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
         <f>6+0.5+1+1+1</f>
         <v>9.5</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <f>4+1+2+1+1+1</f>
         <v>10</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>2</v>
       </c>
-      <c r="K2" s="4">
-        <f>SUM(G2:J2)*2</f>
+      <c r="L2" s="4">
+        <f>SUM(H2:K2)*2</f>
         <v>43</v>
       </c>
-      <c r="M2" s="4">
-        <f>SUM(B2:E2)+K2</f>
+      <c r="N2" s="4">
+        <f>SUM(B2:E2)+L2</f>
         <v>68</v>
       </c>
-      <c r="N2" s="4">
-        <f>SUM(M2+M2*0.1)</f>
+      <c r="O2" s="4">
+        <f>SUM(N2+N2*0.1)</f>
         <v>74.8</v>
       </c>
-      <c r="P2" s="4">
-        <f>SUM(M2:M7)</f>
+      <c r="Q2" s="4">
+        <f>SUM(N2:N7)</f>
         <v>114</v>
       </c>
-      <c r="Q2" s="4">
-        <f>SUM(P2+P2*0.1)</f>
+      <c r="R2" s="4">
+        <f>SUM(Q2+Q2*0.1)</f>
         <v>125.4</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -628,30 +677,33 @@
       <c r="E3" s="4">
         <v>16</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4">
+      <c r="F3" s="5">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4">
         <f>1+1+2+2</f>
         <v>6</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4">
         <f>4+2+2</f>
         <v>8</v>
       </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K7" si="0">SUM(G3:J3)*2</f>
+      <c r="L3" s="4">
+        <f t="shared" ref="L3:L7" si="0">SUM(H3:K3)*2</f>
         <v>28</v>
       </c>
-      <c r="M3" s="4">
-        <f t="shared" ref="M3:M7" si="1">SUM(B3:E3)+K3</f>
+      <c r="N3" s="4">
+        <f>SUM(B3:E3)+L3</f>
         <v>44</v>
       </c>
-      <c r="N3" s="4">
-        <f t="shared" ref="N3:N7" si="2">SUM(M3+M3*0.1)</f>
+      <c r="O3" s="4">
+        <f t="shared" ref="O3:O7" si="1">SUM(N3+N3*0.1)</f>
         <v>48.4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -661,24 +713,25 @@
       <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="F4" s="5"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="4">
+      <c r="K4" s="4"/>
+      <c r="L4" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
+        <f>SUM(B4:E4)+L4</f>
+        <v>2</v>
+      </c>
+      <c r="O4" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N4" s="4">
-        <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -686,70 +739,89 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="5"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N5" s="4">
+        <f>SUM(B5:E5)+L5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="5"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
+        <f>SUM(B6:E6)+L6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="F7" s="5"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
+        <f>SUM(B7:E7)+L7</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:F9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="N2:N3" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/TB_BOM.xlsx
+++ b/TB_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trott\Documents\UofSC-ASME-Tiger-Burn-Design-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771006F2-B7FC-493C-9004-00542FA90198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB45CFE-1D45-4F9A-AAF8-B9170CF41811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E11D219-2DD1-4F5F-BD59-159B1B8915B2}"/>
   </bookViews>
@@ -550,7 +550,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -634,7 +634,9 @@
       <c r="F2" s="5">
         <v>18</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="4">
+        <v>3</v>
+      </c>
       <c r="I2" s="4">
         <f>6+0.5+1+1+1</f>
         <v>9.5</v>
@@ -648,23 +650,23 @@
       </c>
       <c r="L2" s="4">
         <f>SUM(H2:K2)*2</f>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="N2" s="4">
-        <f>SUM(B2:E2)+L2</f>
-        <v>68</v>
+        <f t="shared" ref="N2:N7" si="0">SUM(B2:E2)+L2</f>
+        <v>74</v>
       </c>
       <c r="O2" s="4">
         <f>SUM(N2+N2*0.1)</f>
-        <v>74.8</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="Q2" s="4">
         <f>SUM(N2:N7)</f>
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="R2" s="4">
         <f>SUM(Q2+Q2*0.1)</f>
-        <v>125.4</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -680,7 +682,9 @@
       <c r="F3" s="5">
         <v>9</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4">
+        <v>6</v>
+      </c>
       <c r="I3" s="4">
         <f>1+1+2+2</f>
         <v>6</v>
@@ -691,16 +695,16 @@
         <v>8</v>
       </c>
       <c r="L3" s="4">
-        <f t="shared" ref="L3:L7" si="0">SUM(H3:K3)*2</f>
-        <v>28</v>
+        <f t="shared" ref="L3:L7" si="1">SUM(H3:K3)*2</f>
+        <v>40</v>
       </c>
       <c r="N3" s="4">
-        <f>SUM(B3:E3)+L3</f>
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
       <c r="O3" s="4">
-        <f t="shared" ref="O3:O7" si="1">SUM(N3+N3*0.1)</f>
-        <v>48.4</v>
+        <f t="shared" ref="O3:O7" si="2">SUM(N3+N3*0.1)</f>
+        <v>61.6</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -714,21 +718,23 @@
         <v>2</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4">
+        <v>4</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
-        <f>SUM(B4:E4)+L4</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O4" s="4">
-        <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -745,15 +751,15 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N5" s="4">
-        <f>SUM(B5:E5)+L5</f>
-        <v>0</v>
-      </c>
       <c r="O5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -769,15 +775,15 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N6" s="4">
-        <f>SUM(B6:E6)+L6</f>
-        <v>0</v>
-      </c>
       <c r="O6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -793,15 +799,15 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N7" s="4">
-        <f>SUM(B7:E7)+L7</f>
-        <v>0</v>
-      </c>
       <c r="O7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>

--- a/TB_BOM.xlsx
+++ b/TB_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trott\Documents\UofSC-ASME-Tiger-Burn-Design-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB45CFE-1D45-4F9A-AAF8-B9170CF41811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC736C8E-3DDD-403C-867A-D2C422249834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E11D219-2DD1-4F5F-BD59-159B1B8915B2}"/>
+    <workbookView xWindow="-28920" yWindow="-930" windowWidth="29040" windowHeight="17520" xr2:uid="{5E11D219-2DD1-4F5F-BD59-159B1B8915B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Wood lengths</t>
   </si>
@@ -115,6 +115,12 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>4x4x96</t>
+  </si>
+  <si>
+    <t>4x4x192</t>
   </si>
 </sst>
 </file>
@@ -549,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FB1068-2A37-45DD-A633-D1C139FB0473}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="AA29" sqref="AA29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -625,9 +631,15 @@
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="4">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4">
+        <v>20</v>
+      </c>
       <c r="E2" s="4">
         <v>25</v>
       </c>
@@ -654,19 +666,19 @@
       </c>
       <c r="N2" s="4">
         <f t="shared" ref="N2:N7" si="0">SUM(B2:E2)+L2</f>
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="O2" s="4">
         <f>SUM(N2+N2*0.1)</f>
-        <v>81.400000000000006</v>
+        <v>140.80000000000001</v>
       </c>
       <c r="Q2" s="4">
         <f>SUM(N2:N7)</f>
-        <v>140</v>
+        <v>243</v>
       </c>
       <c r="R2" s="4">
         <f>SUM(Q2+Q2*0.1)</f>
-        <v>154</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -674,8 +686,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="4">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5</v>
+      </c>
       <c r="E3" s="4">
         <v>16</v>
       </c>
@@ -700,20 +716,26 @@
       </c>
       <c r="N3" s="4">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" ref="O3:O7" si="2">SUM(N3+N3*0.1)</f>
-        <v>61.6</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6</v>
+      </c>
       <c r="E4" s="4">
         <v>2</v>
       </c>
@@ -730,19 +752,23 @@
       </c>
       <c r="N4" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
@@ -756,16 +782,20 @@
       </c>
       <c r="N5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4">
+        <v>17</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -780,16 +810,20 @@
       </c>
       <c r="N6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -804,11 +838,11 @@
       </c>
       <c r="N7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(N7+N7*0.1)</f>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
